--- a/kpvotes.xlsx
+++ b/kpvotes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azumi_Shinji\Documents\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azumi_Shinji\Documents\GitHub\KPim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10602,14 +10602,28 @@
     <t>534 443</t>
   </si>
   <si>
-    <t>Alien 3</t>
+    <r>
+      <t>Alien</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10750,6 +10764,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -11456,8 +11479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T569"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A462" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B480" sqref="B480"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19079,7 +19102,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>944</v>
       </c>
@@ -43627,6 +43650,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
@@ -43637,13 +43666,8 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>